--- a/builds/development/data/maindata.xlsx
+++ b/builds/development/data/maindata.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28760" windowHeight="18280" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28760" windowHeight="18280" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1860population" sheetId="3" r:id="rId1"/>
     <sheet name="1870population" sheetId="1" r:id="rId2"/>
     <sheet name="statewide" sheetId="2" r:id="rId3"/>
     <sheet name="source" sheetId="4" r:id="rId4"/>
+    <sheet name="layout" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="279">
   <si>
     <t>GISJOIN</t>
   </si>
@@ -700,6 +701,168 @@
   </si>
   <si>
     <t>Source: U.S. Census Bureau</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>U.S. Census Bureau</t>
+  </si>
+  <si>
+    <t>1860population</t>
+  </si>
+  <si>
+    <t>1870population</t>
+  </si>
+  <si>
+    <t>statewide</t>
+  </si>
+  <si>
+    <t>Summary datapoints for Minnesota populations</t>
+  </si>
+  <si>
+    <t>Minnesota populations by county, by race in 1860</t>
+  </si>
+  <si>
+    <t>Minnesota populations by county, by race in 1870</t>
+  </si>
+  <si>
+    <t>Unique ID for joining to GIS shapefile</t>
+  </si>
+  <si>
+    <t>Census year (1860)</t>
+  </si>
+  <si>
+    <t>State (Minnesota)</t>
+  </si>
+  <si>
+    <t>State ID (270)</t>
+  </si>
+  <si>
+    <t>Minnesota county name</t>
+  </si>
+  <si>
+    <t>Minnesota county ID</t>
+  </si>
+  <si>
+    <t>Number of white females</t>
+  </si>
+  <si>
+    <t>Number of white males</t>
+  </si>
+  <si>
+    <t>Number of freed black male slaves</t>
+  </si>
+  <si>
+    <t>Number of freed black female slaves</t>
+  </si>
+  <si>
+    <t>Number of male slaves</t>
+  </si>
+  <si>
+    <t>Name of female slaves</t>
+  </si>
+  <si>
+    <t>Number of Native Americans</t>
+  </si>
+  <si>
+    <t>Number of Native American males</t>
+  </si>
+  <si>
+    <t>Number of Native American females</t>
+  </si>
+  <si>
+    <t>Total county population</t>
+  </si>
+  <si>
+    <t>Number of whites</t>
+  </si>
+  <si>
+    <t>Number of blacks</t>
+  </si>
+  <si>
+    <t>Number of Asians</t>
+  </si>
+  <si>
+    <t>Percent of population that was white</t>
+  </si>
+  <si>
+    <t>Percent of population that was Native American</t>
+  </si>
+  <si>
+    <t>Percent of population that was black</t>
+  </si>
+  <si>
+    <t>Number born in Minnesota</t>
+  </si>
+  <si>
+    <t>Percent born in Minnesota</t>
+  </si>
+  <si>
+    <t>Number from Illinois</t>
+  </si>
+  <si>
+    <t>Number from New York</t>
+  </si>
+  <si>
+    <t>Number from Ohio</t>
+  </si>
+  <si>
+    <t>Number from Pennsylvania</t>
+  </si>
+  <si>
+    <t>Number from Wisconsin</t>
+  </si>
+  <si>
+    <t>Number from Austria</t>
+  </si>
+  <si>
+    <t>Number from Bohemia</t>
+  </si>
+  <si>
+    <t>Number from British America</t>
+  </si>
+  <si>
+    <t>Number from Denmark</t>
+  </si>
+  <si>
+    <t>Number from England</t>
+  </si>
+  <si>
+    <t>Number from France</t>
+  </si>
+  <si>
+    <t>Number from Germany</t>
+  </si>
+  <si>
+    <t>Number from Great Britain</t>
+  </si>
+  <si>
+    <t>Number from Ireland</t>
+  </si>
+  <si>
+    <t>Number from Scotland</t>
+  </si>
+  <si>
+    <t>Number from Sweden or Norway</t>
+  </si>
+  <si>
+    <t>Number from Switzerland</t>
+  </si>
+  <si>
+    <t>Percent of population from other states</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of population that was foreign-born </t>
+  </si>
+  <si>
+    <t>Total population</t>
   </si>
 </sst>
 </file>
@@ -712,7 +875,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,6 +906,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -761,7 +938,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -769,20 +946,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="33">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -1054,7 +1285,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1065,7 +1296,7 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P65"/>
+      <selection activeCell="P1" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4322,6 +4553,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4334,9 +4566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ74"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK7" sqref="AK7"/>
+      <selection pane="bottomLeft" sqref="A1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12498,10 +12730,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:L51"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12511,580 +12743,580 @@
     <col min="10" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2">
+        <v>438257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>182</v>
+        <v>159</v>
+      </c>
+      <c r="B5">
+        <v>690</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="B6">
-        <v>438257</v>
+        <v>439706</v>
+      </c>
+      <c r="F6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J6">
+        <v>2015</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7">
-        <v>759</v>
+      <c r="A7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.99670461626632345</v>
+      </c>
+      <c r="F7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7">
+        <v>1870</v>
+      </c>
+      <c r="H7">
+        <v>2015</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="A8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.5692303493698061E-3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8">
+        <v>457185</v>
+      </c>
+      <c r="L8" s="2">
+        <f>K8/$K$13</f>
+        <v>8.3282115216535141E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9">
-        <v>690</v>
+      <c r="A9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.7261533843067867E-3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>29</v>
+      </c>
+      <c r="H9">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>3716260</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" ref="L9:L11" si="0">K9/$K$13</f>
+        <v>0.6769644531089184</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B10">
-        <v>439706</v>
+        <v>126491</v>
       </c>
       <c r="F10" t="s">
-        <v>188</v>
-      </c>
-      <c r="J10">
-        <v>2015</v>
+        <v>187</v>
+      </c>
+      <c r="G10">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <v>23</v>
+      </c>
+      <c r="J10" t="s">
+        <v>187</v>
+      </c>
+      <c r="K10">
+        <v>1275855</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23241336244538302</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.99670461626632345</v>
+        <v>181</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.28767176249584953</v>
       </c>
       <c r="F11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G11">
-        <v>1870</v>
+        <v>12</v>
       </c>
       <c r="H11">
-        <v>2015</v>
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11">
+        <v>40294</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="0"/>
+        <v>7.3400692291633951E-3</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1.5692303493698061E-3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G12">
-        <v>36</v>
-      </c>
-      <c r="H12">
-        <v>8</v>
-      </c>
-      <c r="J12" t="s">
-        <v>191</v>
-      </c>
-      <c r="K12">
-        <v>457185</v>
-      </c>
-      <c r="L12" s="2">
-        <f>K12/$K$17</f>
-        <v>8.3282115216535141E-2</v>
+      <c r="A12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12">
+        <v>10979</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1.7261533843067867E-3</v>
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13">
+        <v>39507</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13">
-        <v>29</v>
-      </c>
-      <c r="H13">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="J13" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="K13">
-        <v>3716260</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" ref="L13:L15" si="0">K13/$K$17</f>
-        <v>0.6769644531089184</v>
+        <f>5032409+K8</f>
+        <v>5489594</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B14">
-        <v>126491</v>
-      </c>
-      <c r="F14" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14">
-        <v>23</v>
-      </c>
-      <c r="H14">
-        <v>23</v>
-      </c>
-      <c r="J14" t="s">
-        <v>187</v>
-      </c>
-      <c r="K14">
-        <v>1275855</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.23241336244538302</v>
+        <v>12651</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.28767176249584953</v>
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15">
+        <v>11966</v>
       </c>
       <c r="F15" t="s">
-        <v>195</v>
-      </c>
-      <c r="G15">
-        <v>12</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>192</v>
-      </c>
-      <c r="K15">
-        <v>40294</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="0"/>
-        <v>7.3400692291633951E-3</v>
+        <v>190</v>
+      </c>
+      <c r="G15" t="s">
+        <v>196</v>
+      </c>
+      <c r="H15" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B16">
-        <v>10979</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>24048</v>
+      </c>
+      <c r="F16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16">
+        <v>1870</v>
+      </c>
+      <c r="H16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B17">
-        <v>39507</v>
+        <v>2647</v>
       </c>
       <c r="F17" t="s">
-        <v>194</v>
-      </c>
-      <c r="J17" t="s">
-        <v>193</v>
-      </c>
-      <c r="K17">
-        <f>5032409+K12</f>
-        <v>5489594</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>1870</v>
+      </c>
+      <c r="H17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B18">
-        <v>12651</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>2166</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18">
+        <v>1870</v>
+      </c>
+      <c r="H18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B19">
-        <v>11966</v>
+        <v>16698</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
-      </c>
-      <c r="G19" t="s">
-        <v>196</v>
-      </c>
-      <c r="H19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>195</v>
+      </c>
+      <c r="G19">
+        <v>1870</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B20">
-        <v>24048</v>
+        <v>1910</v>
       </c>
       <c r="F20" t="s">
         <v>186</v>
       </c>
       <c r="G20">
-        <v>1870</v>
+        <v>2015</v>
       </c>
       <c r="H20">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B21">
-        <v>2647</v>
+        <v>6614</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
       </c>
       <c r="G21">
-        <v>1870</v>
+        <v>2015</v>
       </c>
       <c r="H21">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B22">
-        <v>2166</v>
+        <v>1743</v>
       </c>
       <c r="F22" t="s">
         <v>187</v>
       </c>
       <c r="G22">
-        <v>1870</v>
+        <v>2015</v>
       </c>
       <c r="H22">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B23">
-        <v>16698</v>
+        <v>41364</v>
       </c>
       <c r="F23" t="s">
         <v>195</v>
       </c>
       <c r="G23">
-        <v>1870</v>
+        <v>2015</v>
       </c>
       <c r="H23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B24">
-        <v>1910</v>
-      </c>
-      <c r="F24" t="s">
-        <v>186</v>
-      </c>
-      <c r="G24">
-        <v>2015</v>
-      </c>
-      <c r="H24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B25">
-        <v>6614</v>
-      </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25">
-        <v>2015</v>
-      </c>
-      <c r="H25">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>21746</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B26">
-        <v>1743</v>
-      </c>
-      <c r="F26" t="s">
-        <v>187</v>
-      </c>
-      <c r="G26">
-        <v>2015</v>
-      </c>
-      <c r="H26">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27">
+        <v>56927</v>
+      </c>
+      <c r="D27" s="2">
+        <f>(B27+B23)/B6</f>
+        <v>0.22353800039117047</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="F29" t="s">
+        <v>197</v>
+      </c>
+      <c r="G29">
+        <v>56927</v>
+      </c>
+      <c r="H29" s="4">
+        <f>(G29/$G$41)*100</f>
+        <v>36.442842601898739</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="2">
+        <f>SUM(B12:B16)/B6</f>
+        <v>0.22549385271067485</v>
+      </c>
+      <c r="F30" t="s">
         <v>172</v>
       </c>
-      <c r="B27">
+      <c r="G30">
         <v>41364</v>
       </c>
-      <c r="F27" t="s">
-        <v>195</v>
-      </c>
-      <c r="G27">
-        <v>2015</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B28">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
+      <c r="H30" s="4">
+        <f t="shared" ref="H30:H39" si="1">(G30/$G$41)*100</f>
+        <v>26.47990832794525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="2">
+        <f>SUM(B17:B28)/B6</f>
+        <v>0.35525783136914213</v>
+      </c>
+      <c r="F31" t="s">
         <v>174</v>
       </c>
-      <c r="B29">
+      <c r="G31">
         <v>21746</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>175</v>
-      </c>
-      <c r="B30">
-        <v>2194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>197</v>
-      </c>
-      <c r="B31">
-        <v>56927</v>
-      </c>
-      <c r="D31" s="2">
-        <f>(B31+B27)/B10</f>
-        <v>0.22353800039117047</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>177</v>
-      </c>
-      <c r="B32">
-        <v>2162</v>
+      <c r="H31" s="4">
+        <f t="shared" si="1"/>
+        <v>13.921092894775589</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="F32" t="s">
+        <v>198</v>
+      </c>
+      <c r="G32">
+        <v>16698</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="1"/>
+        <v>10.689524931341984</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="F33" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="G33">
-        <v>56927</v>
+        <v>6652</v>
       </c>
       <c r="H33" s="4">
-        <f>(G33/$G$45)*100</f>
-        <v>36.442842601898739</v>
+        <f t="shared" si="1"/>
+        <v>4.2583974034786722</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>184</v>
-      </c>
-      <c r="B34" s="2">
-        <f>SUM(B16:B20)/B10</f>
-        <v>0.22549385271067485</v>
-      </c>
       <c r="F34" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G34">
-        <v>41364</v>
+        <v>2647</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" ref="H34:H43" si="1">(G34/$G$45)*100</f>
-        <v>26.47990832794525</v>
+        <f t="shared" si="1"/>
+        <v>1.694524643266393</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>185</v>
-      </c>
-      <c r="B35" s="2">
-        <f>SUM(B21:B32)/B10</f>
-        <v>0.35525783136914213</v>
-      </c>
       <c r="F35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G35">
-        <v>21746</v>
+        <v>2194</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" si="1"/>
-        <v>13.921092894775589</v>
+        <v>1.4045285482910717</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="F36" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="G36">
-        <v>16698</v>
+        <v>2166</v>
       </c>
       <c r="H36" s="4">
         <f t="shared" si="1"/>
-        <v>10.689524931341984</v>
+        <v>1.3866038448488884</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="F37" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G37">
-        <v>6652</v>
+        <v>2162</v>
       </c>
       <c r="H37" s="4">
         <f t="shared" si="1"/>
-        <v>4.2583974034786722</v>
+        <v>1.3840431729285765</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="F38" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G38">
-        <v>2647</v>
+        <v>1910</v>
       </c>
       <c r="H38" s="4">
         <f t="shared" si="1"/>
-        <v>1.694524643266393</v>
+        <v>1.2227208419489275</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="F39" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G39">
-        <v>2194</v>
+        <v>1743</v>
       </c>
       <c r="H39" s="4">
         <f t="shared" si="1"/>
-        <v>1.4045285482910717</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="F40" t="s">
-        <v>167</v>
-      </c>
-      <c r="G40">
-        <v>2166</v>
-      </c>
-      <c r="H40" s="4">
-        <f t="shared" si="1"/>
-        <v>1.3866038448488884</v>
+        <v>1.115812789275906</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="F41" t="s">
-        <v>177</v>
-      </c>
       <c r="G41">
-        <v>2162</v>
-      </c>
-      <c r="H41" s="4">
-        <f t="shared" si="1"/>
-        <v>1.3840431729285765</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="F42" t="s">
-        <v>169</v>
-      </c>
-      <c r="G42">
-        <v>1910</v>
-      </c>
-      <c r="H42" s="4">
-        <f t="shared" si="1"/>
-        <v>1.2227208419489275</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="F43" t="s">
-        <v>171</v>
-      </c>
-      <c r="G43">
-        <v>1743</v>
-      </c>
-      <c r="H43" s="4">
-        <f t="shared" si="1"/>
-        <v>1.115812789275906</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="G45">
-        <f>SUM(G33:G43)</f>
+        <f>SUM(G29:G39)</f>
         <v>156209</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50">
+    <row r="46" spans="1:8">
+      <c r="A46">
         <v>1860</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51">
+    <row r="47" spans="1:8">
+      <c r="A47">
         <v>1870</v>
       </c>
     </row>
@@ -13103,26 +13335,525 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2016</v>
       </c>
     </row>
+    <row r="6" spans="1:3" s="5" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" s="5" customFormat="1">
+      <c r="A2" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
